--- a/Experiments on SemMed2019.xlsx
+++ b/Experiments on SemMed2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermannkroll/Documents/Promotion/Projekte/LibraryGraph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermannkroll/Documents/PromotionProjekte/ContextInformationFusion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FF2B98-CBCF-5644-8273-3810770AE3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10975420-B96E-8547-B118-A95760AF87A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1260" windowWidth="35840" windowHeight="21940" xr2:uid="{9A2FDE5D-AE4B-A64F-AF8B-8EF7D2400BB9}"/>
+    <workbookView xWindow="1280" yWindow="1100" windowWidth="35840" windowHeight="21940" xr2:uid="{9A2FDE5D-AE4B-A64F-AF8B-8EF7D2400BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cause Experiment" sheetId="19" r:id="rId1"/>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Knowledge Graph</t>
-  </si>
-  <si>
-    <t>Library Graph</t>
   </si>
   <si>
     <t>Experiment</t>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Strict Implicit Context</t>
   </si>
 </sst>
 </file>
@@ -278,159 +278,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="51">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -696,6 +543,123 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -731,6 +695,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -11340,15 +11340,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>156631</xdr:rowOff>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>80431</xdr:rowOff>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4231</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11418,16 +11418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11628,16 +11628,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{11724ACB-4D3A-1E4B-80E3-96E7BC00ED47}" name="Tabelle29" displayName="Tabelle29" ref="A57:F68" totalsRowShown="0">
   <autoFilter ref="A57:F68" xr:uid="{36A3C8E4-D3D7-3D43-BC07-629EE2962EE0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{19E47DC4-C27C-9741-A8E5-A6F2275BA146}" name="Threshold" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{19E47DC4-C27C-9741-A8E5-A6F2275BA146}" name="Threshold" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{D4C9920B-C9A0-7947-B159-C6DC3C910FE9}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{A239DD3F-04A2-5448-AEA6-86E65F698367}" name="Correct Facts"/>
-    <tableColumn id="4" xr3:uid="{F89FA3F2-79A6-1F48-9C6B-030A30A852A8}" name="Precision" dataDxfId="14" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{F89FA3F2-79A6-1F48-9C6B-030A30A852A8}" name="Precision" dataDxfId="19" dataCellStyle="Prozent">
       <calculatedColumnFormula>C58/B58</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F976460A-7DE2-8E4D-8DDB-CCFF2C99303D}" name="Recall" dataDxfId="13" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{F976460A-7DE2-8E4D-8DDB-CCFF2C99303D}" name="Recall" dataDxfId="18" dataCellStyle="Prozent">
       <calculatedColumnFormula>C58/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C0C74C79-4D66-6247-9480-8996E1D06DC2}" name="F1-Score" dataDxfId="12" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{C0C74C79-4D66-6247-9480-8996E1D06DC2}" name="F1-Score" dataDxfId="17" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D58*E58)/(D58+E58)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11646,19 +11646,19 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{470ADB32-2F12-214A-8CD5-5040E7CEF04B}" name="Tabelle32" displayName="Tabelle32" ref="A100:F120" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" headerRowCellStyle="Prozent" dataCellStyle="Prozent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{470ADB32-2F12-214A-8CD5-5040E7CEF04B}" name="Tabelle32" displayName="Tabelle32" ref="A100:F120" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Prozent" dataCellStyle="Prozent">
   <autoFilter ref="A100:F120" xr:uid="{B5639473-5F5E-E543-93CE-2A0658A95515}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AA201AC1-7FDC-8141-A291-DD51FABDD613}" name="k"/>
     <tableColumn id="2" xr3:uid="{A41DDD32-BA90-5543-B9B9-ED4DDB3951B6}" name="Obtained"/>
     <tableColumn id="3" xr3:uid="{A6D5C6C3-C1EE-3348-8335-FEB2ABA76F62}" name="Correct"/>
-    <tableColumn id="4" xr3:uid="{5C9F0A80-363C-7443-BB36-06A0494A065F}" name="Precision" dataDxfId="38" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{5C9F0A80-363C-7443-BB36-06A0494A065F}" name="Precision" dataDxfId="14" dataCellStyle="Prozent">
       <calculatedColumnFormula>C101/B101</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{22B3929C-F39D-364C-A3C9-90A7486EECCF}" name="Recall" dataDxfId="37" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{22B3929C-F39D-364C-A3C9-90A7486EECCF}" name="Recall" dataDxfId="13" dataCellStyle="Prozent">
       <calculatedColumnFormula>C101/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7073633C-BACF-694C-9C5D-C0F5216458C2}" name="F1-Score" dataDxfId="36" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{7073633C-BACF-694C-9C5D-C0F5216458C2}" name="F1-Score" dataDxfId="12" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D101*E101)/(D101+E101)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11667,19 +11667,19 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{F6B54781-79AB-7E49-93C8-717A3A5825DE}" name="Tabelle33" displayName="Tabelle33" ref="A74:F94" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33" headerRowCellStyle="Prozent" dataCellStyle="Prozent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{F6B54781-79AB-7E49-93C8-717A3A5825DE}" name="Tabelle33" displayName="Tabelle33" ref="A74:F94" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9" headerRowCellStyle="Prozent" dataCellStyle="Prozent">
   <autoFilter ref="A74:F94" xr:uid="{C7B865EA-8AB6-BA4F-999E-8ED0EC327D7E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A4B8460B-F0C6-2F43-B8D5-6F407DA2B170}" name="k"/>
     <tableColumn id="2" xr3:uid="{DDA2F1D8-E064-8E4E-B28D-57AC081D8BD5}" name="Obtained"/>
     <tableColumn id="3" xr3:uid="{D6A902C5-1986-8E49-9512-3A2C936C1E5D}" name="Correct"/>
-    <tableColumn id="4" xr3:uid="{1239741F-F73B-4E47-ABA3-64B7A81261E2}" name="Precision" dataDxfId="32" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{1239741F-F73B-4E47-ABA3-64B7A81261E2}" name="Precision" dataDxfId="8" dataCellStyle="Prozent">
       <calculatedColumnFormula>C75/B75</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{377BCD96-1E36-5041-B921-3C22DED638C1}" name="Recall" dataDxfId="31" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{377BCD96-1E36-5041-B921-3C22DED638C1}" name="Recall" dataDxfId="7" dataCellStyle="Prozent">
       <calculatedColumnFormula>C75/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D95A8CA4-20F8-6648-BE20-4F206AB757EF}" name="F1-Score" dataDxfId="30" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{D95A8CA4-20F8-6648-BE20-4F206AB757EF}" name="F1-Score" dataDxfId="6" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D75*E75)/(D75+E75)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11694,11 +11694,11 @@
     <tableColumn id="1" xr3:uid="{10135F3E-5C9C-CF42-965C-50DF4BE8B0F2}" name="Experiment"/>
     <tableColumn id="2" xr3:uid="{B640B649-5619-5343-8ACC-4B48EC6B1AC8}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{80129B00-F9CB-6B4D-BEBF-483D2084D217}" name="Correct Obtained Facts"/>
-    <tableColumn id="4" xr3:uid="{6F55C871-A805-B54C-8BBD-27D551161144}" name="Precision" dataDxfId="29" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{6F55C871-A805-B54C-8BBD-27D551161144}" name="Precision" dataDxfId="5" dataCellStyle="Prozent">
       <calculatedColumnFormula>Tabelle135[[#This Row],[Correct Obtained Facts]]/Tabelle135[[#This Row],[Obtained Facts]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5C793B1E-BE68-DA44-87B1-2FAE5AD8C762}" name="Recall" dataDxfId="28" dataCellStyle="Prozent"/>
-    <tableColumn id="6" xr3:uid="{AA1DCFA3-BBAD-8342-B36E-CC76907C28AB}" name="F1-Score" dataDxfId="27" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{5C793B1E-BE68-DA44-87B1-2FAE5AD8C762}" name="Recall" dataDxfId="4" dataCellStyle="Prozent"/>
+    <tableColumn id="6" xr3:uid="{AA1DCFA3-BBAD-8342-B36E-CC76907C28AB}" name="F1-Score" dataDxfId="3" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(Tabelle135[[#This Row],[Precision]]*Tabelle135[[#This Row],[Recall]])/(Tabelle135[[#This Row],[Precision]]+Tabelle135[[#This Row],[Recall]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11713,13 +11713,13 @@
     <tableColumn id="1" xr3:uid="{26BD4F7A-CAF5-AF47-9202-45EB314FF80A}" name="Experiment"/>
     <tableColumn id="2" xr3:uid="{80A432DE-94B6-7041-B6B8-8A9CAAD2BE52}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{A0D53FDE-0FFA-DE45-B64E-BE9AA5EF9FB2}" name="Correct Obtained Facts"/>
-    <tableColumn id="4" xr3:uid="{FE29D3A2-E201-9348-B48A-DA27FFB9E38B}" name="Precision" dataDxfId="26" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{FE29D3A2-E201-9348-B48A-DA27FFB9E38B}" name="Precision" dataDxfId="2" dataCellStyle="Prozent">
       <calculatedColumnFormula>Tabelle1636[[#This Row],[Correct Obtained Facts]]/Tabelle1636[[#This Row],[Obtained Facts]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DC5022D6-F524-964D-BFE7-27EE7449BB4B}" name="Recall" dataDxfId="25" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{DC5022D6-F524-964D-BFE7-27EE7449BB4B}" name="Recall" dataDxfId="1" dataCellStyle="Prozent">
       <calculatedColumnFormula>Tabelle1636[[#This Row],[Correct Obtained Facts]]/Tabelle135[Correct Obtained Facts]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{93BC41E7-E8BA-1645-A590-39F2C92135EC}" name="F1-Score" dataDxfId="24" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{93BC41E7-E8BA-1645-A590-39F2C92135EC}" name="F1-Score" dataDxfId="0" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(Tabelle1636[[#This Row],[Precision]]*Tabelle1636[[#This Row],[Recall]])/(Tabelle1636[[#This Row],[Precision]]+Tabelle1636[[#This Row],[Recall]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11734,13 +11734,13 @@
     <tableColumn id="1" xr3:uid="{D5DBDBCF-2D9B-054A-B43D-CB3B9BDF4EF9}" name="Threshold"/>
     <tableColumn id="2" xr3:uid="{4BFBC376-6331-8544-A45A-45EA9C049A73}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{2C712CD3-5A9A-8A4F-B512-13BE595F0B16}" name="Correct Facts"/>
-    <tableColumn id="4" xr3:uid="{E402CEA1-7848-2544-A5DD-3F4F0C425F3A}" name="Precision" dataDxfId="11" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{E402CEA1-7848-2544-A5DD-3F4F0C425F3A}" name="Precision" dataDxfId="47" dataCellStyle="Prozent">
       <calculatedColumnFormula>C13/B13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B2F491E5-C0A6-5B49-9CC3-48E2E94101A9}" name="Recall" dataDxfId="10" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{B2F491E5-C0A6-5B49-9CC3-48E2E94101A9}" name="Recall" dataDxfId="46" dataCellStyle="Prozent">
       <calculatedColumnFormula>C13/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C099B639-4646-8A48-BDBD-E72CC829DDBC}" name="F1-Score" dataDxfId="9" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{C099B639-4646-8A48-BDBD-E72CC829DDBC}" name="F1-Score" dataDxfId="45" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D13*E13)/(D13+E13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11755,13 +11755,13 @@
     <tableColumn id="1" xr3:uid="{8B2932F2-1AC2-2548-BD83-15804A183550}" name="Threshold"/>
     <tableColumn id="2" xr3:uid="{AA2DC887-5CA6-AA40-9187-7DF4D70EA2E6}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{E4494103-8809-DE46-931C-5186D4AD70FF}" name="Correct Facts"/>
-    <tableColumn id="4" xr3:uid="{78A9C07A-A535-4148-9848-AAFAAA5785FD}" name="Precision" dataDxfId="8" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{78A9C07A-A535-4148-9848-AAFAAA5785FD}" name="Precision" dataDxfId="44" dataCellStyle="Prozent">
       <calculatedColumnFormula>C28/B28</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7C1EC961-55B2-D94A-9049-290A3BA18BC1}" name="Recall" dataDxfId="7" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{7C1EC961-55B2-D94A-9049-290A3BA18BC1}" name="Recall" dataDxfId="43" dataCellStyle="Prozent">
       <calculatedColumnFormula>C28/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C04DFA88-7309-0B47-B1A1-13DBDD538F33}" name="F1-Score" dataDxfId="6" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{C04DFA88-7309-0B47-B1A1-13DBDD538F33}" name="F1-Score" dataDxfId="42" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D28*E28)/(D28+E28)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11776,13 +11776,13 @@
     <tableColumn id="1" xr3:uid="{7858ED32-0015-D54F-A08C-3CEF00246504}" name="Threshold"/>
     <tableColumn id="2" xr3:uid="{9217569F-0050-144F-B8F7-524E586E2078}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{283AA100-7D80-0A4D-B711-6E91E9165826}" name="Correct Facts"/>
-    <tableColumn id="4" xr3:uid="{C5B9C598-145E-2446-8720-4E283E918514}" name="Precision" dataDxfId="5" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{C5B9C598-145E-2446-8720-4E283E918514}" name="Precision" dataDxfId="41" dataCellStyle="Prozent">
       <calculatedColumnFormula>C43/B43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8BFB5CAD-00AA-DF4D-BC67-82C21CE85CFF}" name="Recall" dataDxfId="4" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{8BFB5CAD-00AA-DF4D-BC67-82C21CE85CFF}" name="Recall" dataDxfId="40" dataCellStyle="Prozent">
       <calculatedColumnFormula>C43/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E3D4733A-B222-8042-A3EC-C441EEDDFDAB}" name="F1-Score" dataDxfId="3" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{E3D4733A-B222-8042-A3EC-C441EEDDFDAB}" name="F1-Score" dataDxfId="39" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D43*E43)/(D43+E43)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11797,13 +11797,13 @@
     <tableColumn id="1" xr3:uid="{71762EBD-5E57-7B4B-AC85-49978C635699}" name="Threshold"/>
     <tableColumn id="2" xr3:uid="{3D9D3A29-F6C3-D948-8CA2-269B7FA52E3C}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{95DC104D-0C54-674F-A497-5973C01009CC}" name="Correct Facts"/>
-    <tableColumn id="4" xr3:uid="{ECD1ECE2-A2C7-6E4A-805B-0AE54DD9EBA0}" name="Precision" dataDxfId="2" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{ECD1ECE2-A2C7-6E4A-805B-0AE54DD9EBA0}" name="Precision" dataDxfId="38" dataCellStyle="Prozent">
       <calculatedColumnFormula>C58/B58</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1DD764AD-7D4D-E14E-82C6-63EE3C47C2D0}" name="Recall" dataDxfId="1" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{1DD764AD-7D4D-E14E-82C6-63EE3C47C2D0}" name="Recall" dataDxfId="37" dataCellStyle="Prozent">
       <calculatedColumnFormula>C58/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9FA720B5-0970-E84C-AB77-81C639448BEF}" name="F1-Score" dataDxfId="0" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{9FA720B5-0970-E84C-AB77-81C639448BEF}" name="F1-Score" dataDxfId="36" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D58*E58)/(D58+E58)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11818,13 +11818,13 @@
     <tableColumn id="1" xr3:uid="{F0359290-1567-E441-AD4D-4DDF1F372193}" name="k"/>
     <tableColumn id="2" xr3:uid="{AD2F5C7A-6502-8943-85CB-F87BB7FBAEA6}" name="Obtained"/>
     <tableColumn id="3" xr3:uid="{F1A13AA2-BA0F-2346-B5E5-AD781A5B15D8}" name="Correct"/>
-    <tableColumn id="4" xr3:uid="{D398DC21-5671-1A49-B0E9-65B73AEDF1F6}" name="Precision" dataDxfId="47" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{D398DC21-5671-1A49-B0E9-65B73AEDF1F6}" name="Precision" dataDxfId="35" dataCellStyle="Prozent">
       <calculatedColumnFormula>C99/B99</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5300209-8979-7D4D-87D0-C03BF0F9E8B9}" name="Recall" dataDxfId="46" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{C5300209-8979-7D4D-87D0-C03BF0F9E8B9}" name="Recall" dataDxfId="34" dataCellStyle="Prozent">
       <calculatedColumnFormula>C99/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4D9028FC-9455-C942-AF68-F4F763C7B295}" name="F1-Score" dataDxfId="45" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{4D9028FC-9455-C942-AF68-F4F763C7B295}" name="F1-Score" dataDxfId="33" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(Tabelle2131[[#This Row],[Precision]]*Tabelle2131[[#This Row],[Recall]])/(Tabelle2131[[#This Row],[Precision]]+Tabelle2131[[#This Row],[Recall]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11836,16 +11836,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{E38D014A-4C18-9040-8CC6-CBC9EABA3C45}" name="Tabelle26" displayName="Tabelle26" ref="A12:F23" totalsRowShown="0">
   <autoFilter ref="A12:F23" xr:uid="{BB5BB6F7-9AA1-9048-B4A6-28E946BD8CC0}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B28BFF0E-EA0D-4B4F-9D12-3D32C6827FFB}" name="Threshold" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{B28BFF0E-EA0D-4B4F-9D12-3D32C6827FFB}" name="Threshold" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{AD4ACCB4-5ABA-CD4B-8182-AE8776A6597A}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{1EA63B47-1F11-6940-9544-5D1974378219}" name="Correct Facts"/>
-    <tableColumn id="4" xr3:uid="{75B6768B-78DA-B445-8930-D1BA7A66C12F}" name="Precision" dataDxfId="22" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{75B6768B-78DA-B445-8930-D1BA7A66C12F}" name="Precision" dataDxfId="31" dataCellStyle="Prozent">
       <calculatedColumnFormula>C13/B13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F89F3EC9-14BC-7C4F-A4EF-B7C428A1F0AA}" name="Recall" dataDxfId="21" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{F89F3EC9-14BC-7C4F-A4EF-B7C428A1F0AA}" name="Recall" dataDxfId="30" dataCellStyle="Prozent">
       <calculatedColumnFormula>C13/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8CE2F557-6D90-0A46-B2C8-28756B752B80}" name="F1-Score" dataDxfId="20" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{8CE2F557-6D90-0A46-B2C8-28756B752B80}" name="F1-Score" dataDxfId="29" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D13*E13)/(D13+E13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11857,16 +11857,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{F803E6CB-8DF2-6F41-B368-DBDDA34A53CA}" name="Tabelle27" displayName="Tabelle27" ref="A27:F38" totalsRowShown="0">
   <autoFilter ref="A27:F38" xr:uid="{7EAF069C-B601-7E4C-BA1E-A7B8013EAFDB}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C1AD9C2A-1D68-C343-ACA6-9B239409C04D}" name="Threshold" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{C1AD9C2A-1D68-C343-ACA6-9B239409C04D}" name="Threshold" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{077AE196-977D-E942-9104-4DE68184FFDE}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{47768FE3-6BC8-9943-83C0-69B10ADF40CE}" name="Correct Facts"/>
-    <tableColumn id="4" xr3:uid="{5DAEFB3B-0D58-0847-8391-5546DD5FCC2F}" name="Precision" dataDxfId="43" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{5DAEFB3B-0D58-0847-8391-5546DD5FCC2F}" name="Precision" dataDxfId="27" dataCellStyle="Prozent">
       <calculatedColumnFormula>C28/B28</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C8C6AFD2-C2B7-D14E-8575-D7F703C1AF2B}" name="Recall" dataDxfId="42" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{C8C6AFD2-C2B7-D14E-8575-D7F703C1AF2B}" name="Recall" dataDxfId="26" dataCellStyle="Prozent">
       <calculatedColumnFormula>C28/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4D933447-BADF-0A4F-B0AF-1D2A18420058}" name="F1-Score" dataDxfId="41" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{4D933447-BADF-0A4F-B0AF-1D2A18420058}" name="F1-Score" dataDxfId="25" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D28*E28)/(D28+E28)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11878,16 +11878,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{B122FFEC-81B1-A740-8A03-865B1BEA0E8D}" name="Tabelle28" displayName="Tabelle28" ref="A42:F53" totalsRowShown="0">
   <autoFilter ref="A42:F53" xr:uid="{9279F98C-CF1C-064C-9EF5-676A8AAE02F6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CA0D6F83-E6FC-6844-826C-A0B328431714}" name="Threshold" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{CA0D6F83-E6FC-6844-826C-A0B328431714}" name="Threshold" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{30B50E31-5297-DE40-AE4E-E2952928C29C}" name="Obtained Facts"/>
     <tableColumn id="3" xr3:uid="{825FAFFF-297B-8C44-89EF-29836A8712D9}" name="Correct Facts"/>
-    <tableColumn id="4" xr3:uid="{5DF8A452-6ADD-3C46-9D73-BCD2E7A78CAD}" name="Precision" dataDxfId="18" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{5DF8A452-6ADD-3C46-9D73-BCD2E7A78CAD}" name="Precision" dataDxfId="23" dataCellStyle="Prozent">
       <calculatedColumnFormula>C43/B43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C758A715-266C-EB4A-9FC5-C26DBADC0F15}" name="Recall" dataDxfId="17" dataCellStyle="Prozent">
+    <tableColumn id="5" xr3:uid="{C758A715-266C-EB4A-9FC5-C26DBADC0F15}" name="Recall" dataDxfId="22" dataCellStyle="Prozent">
       <calculatedColumnFormula>C43/$C$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DDA86435-CCDA-4149-B254-F74C2DBC8F1E}" name="F1-Score" dataDxfId="16" dataCellStyle="Prozent">
+    <tableColumn id="6" xr3:uid="{DDA86435-CCDA-4149-B254-F74C2DBC8F1E}" name="F1-Score" dataDxfId="21" dataCellStyle="Prozent">
       <calculatedColumnFormula>2*(D43*E43)/(D43+E43)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12195,7 +12195,7 @@
   <dimension ref="A1:T118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12212,13 +12212,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -12254,18 +12254,18 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>0</v>
@@ -12302,23 +12302,23 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -12606,7 +12606,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -12614,13 +12614,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
@@ -12908,7 +12908,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -12916,13 +12916,13 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>0</v>
@@ -13210,7 +13210,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -13218,13 +13218,13 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>0</v>
@@ -13491,21 +13491,21 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
         <v>14</v>
-      </c>
-      <c r="C73" t="s">
-        <v>15</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -14036,26 +14036,26 @@
     </row>
     <row r="94" spans="1:20">
       <c r="G94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
         <v>14</v>
-      </c>
-      <c r="C98" t="s">
-        <v>15</v>
       </c>
       <c r="D98" t="s">
         <v>0</v>
@@ -14546,7 +14546,7 @@
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14563,13 +14563,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -14605,18 +14605,18 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>0</v>
@@ -14653,23 +14653,23 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>0</v>
@@ -14936,18 +14936,18 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>0</v>
@@ -15227,18 +15227,18 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>0</v>
@@ -15516,18 +15516,18 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>0</v>
@@ -15794,21 +15794,21 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>0</v>
@@ -16282,21 +16282,21 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
         <v>14</v>
-      </c>
-      <c r="C100" t="s">
-        <v>15</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>0</v>
@@ -16787,7 +16787,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16810,13 +16810,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -16852,18 +16852,18 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
